--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
   <si>
     <t>Heroes</t>
   </si>
@@ -531,6 +531,27 @@
   </si>
   <si>
     <t>28|32</t>
+  </si>
+  <si>
+    <t>Organized crime-wave</t>
+  </si>
+  <si>
+    <t>Nick Fury</t>
+  </si>
+  <si>
+    <t>Avengers|Illuminati</t>
+  </si>
+  <si>
+    <t>Maggia Goons</t>
+  </si>
+  <si>
+    <t>Speed (R)|The Captain &amp; The Devil (SW2)|Goliath (CW)|Captain Marvel, Agent of SHIELD (R)|Totally Awesome Hulk (CH)</t>
+  </si>
+  <si>
+    <t>2|9</t>
+  </si>
+  <si>
+    <t>Goons sequenced into a twist once for 3 and once for 2. Lots of wounds and insufficient thinning as goons get twisted before you can beat them.</t>
   </si>
 </sst>
 </file>
@@ -871,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1663,6 +1684,38 @@
         <v>170</v>
       </c>
     </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="219">
   <si>
     <t>Heroes</t>
   </si>
@@ -552,6 +552,126 @@
   </si>
   <si>
     <t>Goons sequenced into a twist once for 3 and once for 2. Lots of wounds and insufficient thinning as goons get twisted before you can beat them.</t>
+  </si>
+  <si>
+    <t>Dark Alliance</t>
+  </si>
+  <si>
+    <t>Charles Xavier, Professor of Crime</t>
+  </si>
+  <si>
+    <t>X-Men Noir|Army of Evil</t>
+  </si>
+  <si>
+    <t>Death's Heads</t>
+  </si>
+  <si>
+    <t>Warlock (NM)|Superior Iron Man (SW1)|Storm (B)|Peter Parker, Homecoming (HC)|Daredevil (DC)</t>
+  </si>
+  <si>
+    <t>Extra MM added: King Hyperion</t>
+  </si>
+  <si>
+    <t>Daredevil and Superior Iron Man are very powerful combinations. Lots of bystanders from prof X to KO grey heroes.</t>
+  </si>
+  <si>
+    <t>43|49</t>
+  </si>
+  <si>
+    <t>Massive Earthquake Generator</t>
+  </si>
+  <si>
+    <t>Onslaught</t>
+  </si>
+  <si>
+    <t>Dark Descendants|Wrecking Crew</t>
+  </si>
+  <si>
+    <t>Stature (CW)|Deathlok (AOS)|Bishop (DC)|Valkyrie (HOA)|Spider-Man (B)</t>
+  </si>
+  <si>
+    <t>impossible</t>
+  </si>
+  <si>
+    <t>X-Men Danger Room Goes Berserk</t>
+  </si>
+  <si>
+    <t>Mr. Sinister</t>
+  </si>
+  <si>
+    <t>Marauders|Utopolis</t>
+  </si>
+  <si>
+    <t>Cops</t>
+  </si>
+  <si>
+    <t>Black Swan (SW2)|Lady Sif (HOA)|Tony Stark (HC)|Iron Man (B)|Phoenix (XM)</t>
+  </si>
+  <si>
+    <t>22|31</t>
+  </si>
+  <si>
+    <t>Big villains, KO hero scheme with strong KO-ing mastermind. One less card means early buys suck. Even with turn 1 spiderman rare there was no chance.</t>
+  </si>
+  <si>
+    <t>Mr Sinister is not that tough to beat. The twists did not come that quickly.</t>
+  </si>
+  <si>
+    <t>Enthrone the Barons of Battleworld</t>
+  </si>
+  <si>
+    <t>Galactus</t>
+  </si>
+  <si>
+    <t>Heralds of Galactus|X-Men First Class</t>
+  </si>
+  <si>
+    <t>Lady Thor (SW1)|Caiera (WW)|Wolverine (DC)|Black Bolt (SW1)|Hulk (B)</t>
+  </si>
+  <si>
+    <t>48|27</t>
+  </si>
+  <si>
+    <t>Fifth master strike came too early. One player sabotaged other player by denying a fit hero, undermining the game.</t>
+  </si>
+  <si>
+    <t>Earthquake Drains the Ocean</t>
+  </si>
+  <si>
+    <t>Zombie Green Goblin</t>
+  </si>
+  <si>
+    <t>The Deadlands|Uncanny X-Men|Shi'ar Imperial Guard</t>
+  </si>
+  <si>
+    <t>Squirrel Girl (D)|Wasp (AM)|Loki (V)|Quicksilver (R)|Superior Iron Man (SW1)</t>
+  </si>
+  <si>
+    <t>40|65</t>
+  </si>
+  <si>
+    <t>Few options for thinning deck, making it hard to get up to 12 to beat the mm. Loki allowed players to sabotage each other. No villain escaped, but villain deck ran out.</t>
+  </si>
+  <si>
+    <t>Imprison Unregistered Superhumans</t>
+  </si>
+  <si>
+    <t>General Ross</t>
+  </si>
+  <si>
+    <t>Code Red|Shi'ar Imperial Guard</t>
+  </si>
+  <si>
+    <t>Spider-Slayer</t>
+  </si>
+  <si>
+    <t>Venomized Dr. Strange (VE)|Steve Rogers, Director of S.H.I.E.L.D. (C75)|Kitty Pryde (XM)|Jubilee (XM)|Blade (DC)</t>
+  </si>
+  <si>
+    <t>Game was never really at risk. Savior was very strong.</t>
+  </si>
+  <si>
+    <t>41|37</t>
   </si>
 </sst>
 </file>
@@ -892,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1716,6 +1836,201 @@
         <v>178</v>
       </c>
     </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="239">
   <si>
     <t>Heroes</t>
   </si>
@@ -672,6 +672,66 @@
   </si>
   <si>
     <t>41|37</t>
+  </si>
+  <si>
+    <t>Televised Deathtraps of Mojoworld</t>
+  </si>
+  <si>
+    <t>Adrian Toomes</t>
+  </si>
+  <si>
+    <t>Salvagers|Life Foundation</t>
+  </si>
+  <si>
+    <t>Multiple Man</t>
+  </si>
+  <si>
+    <t>Beta Ray Bill (HOA)|Howard the Duck (D)|Bishop (DC)|Nerkkod, Breaker of Oceans (FI)|Man-Thing (D)</t>
+  </si>
+  <si>
+    <t>38|26</t>
+  </si>
+  <si>
+    <t>Multiple men can really streamline deck. Nerkkod awkward with hero playmat, but still useful against mastermind. Bishop is really strong.</t>
+  </si>
+  <si>
+    <t>Break the Planet Asunder</t>
+  </si>
+  <si>
+    <t>Uru-Enchanted Iron Man</t>
+  </si>
+  <si>
+    <t>The Mighty|Enemies of Asgard</t>
+  </si>
+  <si>
+    <t>Blade (DC)|Arkon the Magnificent (SW2)|Mockingbird (AOS)|Punisher (DC)|Mirage (NM)|Falcon (CW)|Moon Knight (PTT)</t>
+  </si>
+  <si>
+    <t>51|27</t>
+  </si>
+  <si>
+    <t>Multiple lethal twists averted by guessing when next twist was going to be and uru-weaponing it away.</t>
+  </si>
+  <si>
+    <t>Invasion of the Venom Symbiotes</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Life Foundation|Mojoverse</t>
+  </si>
+  <si>
+    <t>The Brood|S.H.I.E.L.D. Assault Squad</t>
+  </si>
+  <si>
+    <t>Luke Cage (CW)|Black Widow (B)|Steve Rogers, Director of S.H.I.E.L.D. (C75)|Skaar, Son of Hulk (WW)|Daredevil (CW)</t>
+  </si>
+  <si>
+    <t>45|38</t>
+  </si>
+  <si>
+    <t>Quickly 5 cards escaped, but then the game was very stable. Black Widow is quite potent with human shields and Hybrid's alt fight effect.</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2031,6 +2091,102 @@
         <v>217</v>
       </c>
     </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="293">
   <si>
     <t>Heroes</t>
   </si>
@@ -732,6 +732,168 @@
   </si>
   <si>
     <t>Quickly 5 cards escaped, but then the game was very stable. Black Widow is quite potent with human shields and Hybrid's alt fight effect.</t>
+  </si>
+  <si>
+    <t>Fall of the Hulks</t>
+  </si>
+  <si>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t>Infinity Gems|Emissaries of Evil</t>
+  </si>
+  <si>
+    <t>Sapien League</t>
+  </si>
+  <si>
+    <t>Nul, Breaker of Worlds (FI)|Agent X-13 (C75)|Totally Awesome Hulk (CH)|Namora (WW)|Iron Fist (DC)</t>
+  </si>
+  <si>
+    <t>8|43</t>
+  </si>
+  <si>
+    <t>One card left in villain deck, 1 wound left in stack. Reality gem is weak. One player managed to hit all the henchmen for thinning.</t>
+  </si>
+  <si>
+    <t>Secret Empire of Betrayal</t>
+  </si>
+  <si>
+    <t>Fin Fang Foom</t>
+  </si>
+  <si>
+    <t>Monsters Unleashed|Shi'ar Imperial Guard</t>
+  </si>
+  <si>
+    <t>Shi'ar Patrol Craft</t>
+  </si>
+  <si>
+    <t>Sunspot (NM)|Longshot (XM)|Solo (DP)|Amadeus Cho (WW)|Rogue (B)</t>
+  </si>
+  <si>
+    <t>Cable as extra hero</t>
+  </si>
+  <si>
+    <t>10th twist resolved relatively early with still 15+ cards in villain deck.</t>
+  </si>
+  <si>
+    <t>34|41</t>
+  </si>
+  <si>
+    <t>M.O.D.O.K.</t>
+  </si>
+  <si>
+    <t>Save Humanity</t>
+  </si>
+  <si>
+    <t>Hood's Gang|S.H.I.E.L.D. Elite</t>
+  </si>
+  <si>
+    <t>Cloak &amp; Dagger (CW)|Phoenix Force Cyclops (SW2)|Valkyrie (HOA)|Tigra (CW)|Captain Marvel (SW1)</t>
+  </si>
+  <si>
+    <t>38|34</t>
+  </si>
+  <si>
+    <t>Few bystanders appeared in the hq and there were quite a number of yellow heroes.</t>
+  </si>
+  <si>
+    <t>Secret Invasion of the Skrull Shapeshifters</t>
+  </si>
+  <si>
+    <t>Skrulls|Intelligencia</t>
+  </si>
+  <si>
+    <t>Mandroid</t>
+  </si>
+  <si>
+    <t>Photon (R)|Black Knight (AM)|Howard the Duck (D)|Maximus (SW1)|Venomized Dr. Strange (VE)|Karma (NM)</t>
+  </si>
+  <si>
+    <t>Difficult to consistently get to 8 recruit after all strikes are gone</t>
+  </si>
+  <si>
+    <t>39|31</t>
+  </si>
+  <si>
+    <t>Deadpool Kills the Marvel Universe</t>
+  </si>
+  <si>
+    <t>Omens of Ragnarok|Manhattan (Earth-1610)</t>
+  </si>
+  <si>
+    <t>Stingray (DP)|Nova (CH)|Agent Venom (SW2)|Angel Noir (N)</t>
+  </si>
+  <si>
+    <t>Final twist one turn too soon. Played a few turns already with an empty hero deck.</t>
+  </si>
+  <si>
+    <t>8|33</t>
+  </si>
+  <si>
+    <t>K'un-Lun|Manhattan (Earth-1610)</t>
+  </si>
+  <si>
+    <t>21|22</t>
+  </si>
+  <si>
+    <t>One twist out only, but it was turns away.</t>
+  </si>
+  <si>
+    <t>First game using Tabletop Simulator</t>
+  </si>
+  <si>
+    <t>Blade (DC)|Dazzler (XM)|Colossus &amp; Wolverine (XM)|Captain Marvel (SW2)|Venom (V)</t>
+  </si>
+  <si>
+    <t>Crush Them With My Bare Hands</t>
+  </si>
+  <si>
+    <t>Supreme Intelligence of the Kree</t>
+  </si>
+  <si>
+    <t>Kree Starforce|Lethal Legion</t>
+  </si>
+  <si>
+    <t>Mr. Fantastic (FF)|Rocket Raccoon (GG)|Beast (XM)|Howard the Duck (D)|Superior Iron Man (SW1)</t>
+  </si>
+  <si>
+    <t>39|53</t>
+  </si>
+  <si>
+    <t>The mastermind managed to gather a lot of shards. It took Mr Fantastic's ultimate and focus accumulation for a few big hits in the late game.</t>
+  </si>
+  <si>
+    <t>Capture Baby Hope</t>
+  </si>
+  <si>
+    <t>Morgan Le Fay</t>
+  </si>
+  <si>
+    <t>Queen's Vengeance|Goblin's Freak Show</t>
+  </si>
+  <si>
+    <t>Kitty Pryde (XM)|Corvus Glaive (SW2)|Hulk (B)|Viv Vision (CH)|Wasp (AM)</t>
+  </si>
+  <si>
+    <t>Lots of ultimate heroes early on. Two twists stacked, but with only two twists out and city mostly empty.</t>
+  </si>
+  <si>
+    <t>46|24</t>
+  </si>
+  <si>
+    <t>The God-Emperor of Battleworld</t>
+  </si>
+  <si>
+    <t>Life Foundation|Hellfire Club</t>
+  </si>
+  <si>
+    <t>Gamora (GG)|Karma (NM)|The Warriors Three (HOA)|Ms. Marvel (CH)|Nul, Breaker of Worlds (FI)</t>
+  </si>
+  <si>
+    <t>Two early master strikes were duds, the emperor was at 11 for a long time and got beaten before any more twists. Nul is really nasty.</t>
+  </si>
+  <si>
+    <t>70|36</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2187,6 +2349,300 @@
         <v>238</v>
       </c>
     </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>253</v>
+      </c>
+      <c r="I35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>258</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>272</v>
+      </c>
+      <c r="I39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>280</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>287</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>292</v>
+      </c>
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="298">
   <si>
     <t>Heroes</t>
   </si>
@@ -894,6 +894,21 @@
   </si>
   <si>
     <t>70|36</t>
+  </si>
+  <si>
+    <t>Marauders|Shadow-X</t>
+  </si>
+  <si>
+    <t>Deadpool (B)|Slapstick (DP)|Bullseye (V)|Nerkkod, Breaker of Oceans (FI)|Thing (FF)</t>
+  </si>
+  <si>
+    <t>Hit the final tactic turn before likely lethal twist.</t>
+  </si>
+  <si>
+    <t>War Machine as extra hero</t>
+  </si>
+  <si>
+    <t>32|24</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2643,6 +2658,41 @@
         <v>291</v>
       </c>
     </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E43" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>297</v>
+      </c>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>296</v>
+      </c>
+      <c r="K43" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="303">
   <si>
     <t>Heroes</t>
   </si>
@@ -909,6 +909,21 @@
   </si>
   <si>
     <t>32|24</t>
+  </si>
+  <si>
+    <t>Deadlands Hordes Charge the Wall</t>
+  </si>
+  <si>
+    <t>Wasteland|Masters of Evil (WWII)|Sinister Six</t>
+  </si>
+  <si>
+    <t>Peter's Allies (HC)|Cloak &amp; Dagger (CW)|Quake (AOS)|Luke Cage Noir (N)|Agent Phil Coulson (AOS)</t>
+  </si>
+  <si>
+    <t>45|44</t>
+  </si>
+  <si>
+    <t>SHIELD level was extremely strong in this one.</t>
   </si>
 </sst>
 </file>
@@ -1249,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2693,6 +2708,38 @@
         <v>295</v>
       </c>
     </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>299</v>
+      </c>
+      <c r="E44" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="309">
   <si>
     <t>Heroes</t>
   </si>
@@ -924,6 +924,24 @@
   </si>
   <si>
     <t>SHIELD level was extremely strong in this one.</t>
+  </si>
+  <si>
+    <t>Mephisto</t>
+  </si>
+  <si>
+    <t>Underworld|Aspects of the Void</t>
+  </si>
+  <si>
+    <t>The Brood|Cape-Killers</t>
+  </si>
+  <si>
+    <t>Dr. Octopus (V)|Captain America (B)|Namora (WW)|Caiera (WW)|Invisible Woman (FF)</t>
+  </si>
+  <si>
+    <t>Lots of wounds, but also lots of ways to KO them (or the twists before they spawn wounds). Did get to 5 escaped villains.</t>
+  </si>
+  <si>
+    <t>17|33</t>
   </si>
 </sst>
 </file>
@@ -1264,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2740,6 +2758,38 @@
         <v>302</v>
       </c>
     </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>308</v>
+      </c>
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="316">
   <si>
     <t>Heroes</t>
   </si>
@@ -942,6 +942,27 @@
   </si>
   <si>
     <t>17|33</t>
+  </si>
+  <si>
+    <t>Master of Tyrants</t>
+  </si>
+  <si>
+    <t>Hydra Super-Adaptoid</t>
+  </si>
+  <si>
+    <t>A.I.M., Hydra Offshoot|Queen's Vengeance</t>
+  </si>
+  <si>
+    <t>Colossus (DC)|Kitty Pryde (XM)|Daredevil (CW)|Maximus (SW1)|Moon Knight (PTT)</t>
+  </si>
+  <si>
+    <t>Grim Reaper|Morgan Le Fay|Malekith the Accursed</t>
+  </si>
+  <si>
+    <t>29|45</t>
+  </si>
+  <si>
+    <t>Malekith is very awkward as he's weak and has no VP. Daredevil is really strong and Moon Knight can do some heavy lifting with Koing.</t>
   </si>
 </sst>
 </file>
@@ -1282,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2790,6 +2811,41 @@
         <v>307</v>
       </c>
     </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" t="s">
+        <v>310</v>
+      </c>
+      <c r="D46" t="s">
+        <v>311</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>314</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="321">
   <si>
     <t>Heroes</t>
   </si>
@@ -963,6 +963,21 @@
   </si>
   <si>
     <t>Malekith is very awkward as he's weak and has no VP. Daredevil is really strong and Moon Knight can do some heavy lifting with Koing.</t>
+  </si>
+  <si>
+    <t>Steal the Weaponized Plutonium</t>
+  </si>
+  <si>
+    <t>Lethal Legion|Intelligencia|Demons of Limbo</t>
+  </si>
+  <si>
+    <t>Ghost Racers</t>
+  </si>
+  <si>
+    <t>Ruby Summers (SW2)|Gambit (B)|Happy Hogan (HC)|No-Name, Brood Queen (WW)|Patriot (CW)</t>
+  </si>
+  <si>
+    <t>35|38</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2846,6 +2861,35 @@
         <v>315</v>
       </c>
     </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>316</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>320</v>
+      </c>
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="378">
   <si>
     <t>Heroes</t>
   </si>
@@ -978,6 +978,177 @@
   </si>
   <si>
     <t>35|38</t>
+  </si>
+  <si>
+    <t>Brainwash the Military</t>
+  </si>
+  <si>
+    <t>Dr. Strange</t>
+  </si>
+  <si>
+    <t>Defenders|Spider Friends</t>
+  </si>
+  <si>
+    <t>M.O.D.O.K.s</t>
+  </si>
+  <si>
+    <t>Steve Rogers, Director of S.H.I.E.L.D. (C75)|Venompool (VE)|Hulk (B)|Jessica Jones (D)|Deadpool (B)</t>
+  </si>
+  <si>
+    <t>18|45</t>
+  </si>
+  <si>
+    <t>No officer managed to escape. Steve Rogers and Venompool combine very strongly.</t>
+  </si>
+  <si>
+    <t>Lots of plutonium got stacked onto one big guy, but he failed to escape as quite a few villains are locations.</t>
+  </si>
+  <si>
+    <t>Illuminati, Secret Society</t>
+  </si>
+  <si>
+    <t>Illuminati|Salvagers</t>
+  </si>
+  <si>
+    <t>Cape-Killers</t>
+  </si>
+  <si>
+    <t>Dr. Strange (SW1)|Totally Awesome Hulk (CH)|No-Name, Brood Queen (WW)|Korg (WW)|Phoenix (XM)</t>
+  </si>
+  <si>
+    <t>Master strikes are really disruptive. The last ones came quite late, but we lost with one tactic remaining.</t>
+  </si>
+  <si>
+    <t>22|28</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. vs. HYDRA War</t>
+  </si>
+  <si>
+    <t>Hydra Elite|Code Red</t>
+  </si>
+  <si>
+    <t>Darkhawk (R)|Rogue (B)|Lady Sif (HOA)|War Machine (R)|Hercules (CW)</t>
+  </si>
+  <si>
+    <t>HYDRA level was 4 by ambush only.</t>
+  </si>
+  <si>
+    <t>18|47</t>
+  </si>
+  <si>
+    <t>Fear Itself</t>
+  </si>
+  <si>
+    <t>Ultron</t>
+  </si>
+  <si>
+    <t>Ultron's Legacy|Superhuman Registration Act</t>
+  </si>
+  <si>
+    <t>Cytoplasm Spikes</t>
+  </si>
+  <si>
+    <t>Namora (WW)|Hercules (CW)|Lady Thor (SW1)|Phoenix (XM)|Beta Ray Bill (HOA)</t>
+  </si>
+  <si>
+    <t>Fear level got to 3. Phoenix kept the city empty, Lady Thor netted a lot of recruit to buy ultimates. Master strikes only ensured empowered to green.</t>
+  </si>
+  <si>
+    <t>26|45</t>
+  </si>
+  <si>
+    <t>Mole Man</t>
+  </si>
+  <si>
+    <t>Subterranea|Sinister Six</t>
+  </si>
+  <si>
+    <t>Ruby Summers (SW2)|Sentry (WW)|Skirn, Breaker of Men (FI)|Jubilee (XM)|Ant-Man (AM)</t>
+  </si>
+  <si>
+    <t>Only one twist out, but it got put close to the bottom by one of Mole man's tactics.</t>
+  </si>
+  <si>
+    <t>Random masterminds were Magneto, Arcade and The Red King. Arcade got his human shields when entering.</t>
+  </si>
+  <si>
+    <t>42|27</t>
+  </si>
+  <si>
+    <t>The Korvac Saga</t>
+  </si>
+  <si>
+    <t>Bob, Agent of HYDRA (DP)|Mockingbird (AOS)|Goliath (CW)|Wolfsbane (NM)|Spider-Gwen (SW2)</t>
+  </si>
+  <si>
+    <t>Early spider-gwen is insane.</t>
+  </si>
+  <si>
+    <t>12|42</t>
+  </si>
+  <si>
+    <t>Mutant-Hunting Super Sentinels</t>
+  </si>
+  <si>
+    <t>Stryfe</t>
+  </si>
+  <si>
+    <t>MLF|Infinity Gems</t>
+  </si>
+  <si>
+    <t>Sentinel|Death's Heads</t>
+  </si>
+  <si>
+    <t>She-Hulk (WW)|Luke Cage (CW)|Wolverine (B)|Iron Fist (DC)|X-23 (XM)</t>
+  </si>
+  <si>
+    <t>7|35</t>
+  </si>
+  <si>
+    <t>Iron Fist, She-Hulk and Wolverine are insane together. Stryfe got pummeled as one player got up to 59 attack. No Sentinel escaped.</t>
+  </si>
+  <si>
+    <t>Smash Two Dimensions Together</t>
+  </si>
+  <si>
+    <t>Goblin's Freak Show|K'un-lun|Life Foundation</t>
+  </si>
+  <si>
+    <t>Totally Awesome Hulk (CH)|Wasp (AM)|Gambit (B)|Spider-Man Noir (N)|Venompool (VE)</t>
+  </si>
+  <si>
+    <t>Wasp and Gambit combo. Also lots of bystanders from Spiderman Noir and Venompool. Only two escapes, but Goblin took a long time to defeat.</t>
+  </si>
+  <si>
+    <t>75|43</t>
+  </si>
+  <si>
+    <t>Predict Future Crime</t>
+  </si>
+  <si>
+    <t>Ultron's Legacy|Shadow-X|Warbound</t>
+  </si>
+  <si>
+    <t>Star-Lord (GG)|Agent Phil Coulson (AOS)|Juggernaut (V)|Psylocke (XM)|Legion (XM)</t>
+  </si>
+  <si>
+    <t>Three villains escaped because almost all twists passed in the first ten reveals, with no henchmen revealed. A late twist hit three villains and it was game over.</t>
+  </si>
+  <si>
+    <t>7|8</t>
+  </si>
+  <si>
+    <t>Demons of Limbo|Illuminati</t>
+  </si>
+  <si>
+    <t>Cannonball (XM)|Beast (SW2)|Deadpool (DP)|Captain America, Secret Avenger (CW)|Hulk (B)</t>
+  </si>
+  <si>
+    <t>No KO mechanisms made the game very slow. Early master strikes really screwed the early recruits. Game ended because villain deck ran out (bear escaped twice).</t>
+  </si>
+  <si>
+    <t>29|44</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2889,6 +3060,332 @@
       <c r="I47" t="s">
         <v>104</v>
       </c>
+      <c r="K47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" t="s">
+        <v>322</v>
+      </c>
+      <c r="D48" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>326</v>
+      </c>
+      <c r="I48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D49" t="s">
+        <v>330</v>
+      </c>
+      <c r="E49" t="s">
+        <v>331</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>334</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>335</v>
+      </c>
+      <c r="C50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>339</v>
+      </c>
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" t="s">
+        <v>342</v>
+      </c>
+      <c r="E51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F51" t="s">
+        <v>344</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>346</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" t="s">
+        <v>348</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>352</v>
+      </c>
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" t="s">
+        <v>351</v>
+      </c>
+      <c r="K52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" t="s">
+        <v>354</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" t="s">
+        <v>358</v>
+      </c>
+      <c r="D54" t="s">
+        <v>359</v>
+      </c>
+      <c r="E54" t="s">
+        <v>360</v>
+      </c>
+      <c r="F54" t="s">
+        <v>361</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>362</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>364</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>365</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" t="s">
+        <v>366</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>368</v>
+      </c>
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" t="s">
+        <v>341</v>
+      </c>
+      <c r="D56" t="s">
+        <v>370</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>371</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>373</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>329</v>
+      </c>
+      <c r="D57" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>377</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="384">
   <si>
     <t>Heroes</t>
   </si>
@@ -1149,6 +1149,24 @@
   </si>
   <si>
     <t>29|44</t>
+  </si>
+  <si>
+    <t>Horror of Horrors</t>
+  </si>
+  <si>
+    <t>Vulture</t>
+  </si>
+  <si>
+    <t>Vulture Tech|Warbound</t>
+  </si>
+  <si>
+    <t>Elektra (DC)|Silk (SW2)|Hiroim (WW)|Electro (V)|Groot (GG)</t>
+  </si>
+  <si>
+    <t>One more turn would have netted final tactic. First horror was devastating (every twist a strike). 8 cards remaining when final twist appeared.</t>
+  </si>
+  <si>
+    <t>31|36</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3387,6 +3405,38 @@
         <v>376</v>
       </c>
     </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58" t="s">
+        <v>380</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" t="s">
+        <v>381</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>383</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" t="s">
+        <v>382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="389">
   <si>
     <t>Heroes</t>
   </si>
@@ -1167,6 +1167,21 @@
   </si>
   <si>
     <t>31|36</t>
+  </si>
+  <si>
+    <t>Crown Thor King of Asgard</t>
+  </si>
+  <si>
+    <t>Monsters Unleashed|Evil Deadpool Corpse</t>
+  </si>
+  <si>
+    <t>Mirage (NM)|Amadeus Cho (WW)|Legion (XM)|Gambit (B)|Dr. Strange (SW1)</t>
+  </si>
+  <si>
+    <t>Thor escaped once. 9 cards left in villain deck.</t>
+  </si>
+  <si>
+    <t>51|34</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3437,6 +3452,38 @@
         <v>382</v>
       </c>
     </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>388</v>
+      </c>
+      <c r="I59" t="s">
+        <v>104</v>
+      </c>
+      <c r="K59" t="s">
+        <v>387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="394">
   <si>
     <t>Heroes</t>
   </si>
@@ -1182,6 +1182,21 @@
   </si>
   <si>
     <t>51|34</t>
+  </si>
+  <si>
+    <t>The Fountain of Eternal Life</t>
+  </si>
+  <si>
+    <t>Hand Ninjas</t>
+  </si>
+  <si>
+    <t>Nick Fury (B)|Sunspot (NM)|Thing (FF)|Iceman (DC)|Black Widow (B)</t>
+  </si>
+  <si>
+    <t>iceman</t>
+  </si>
+  <si>
+    <t>22|26</t>
   </si>
 </sst>
 </file>
@@ -1522,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3484,6 +3499,38 @@
         <v>387</v>
       </c>
     </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>390</v>
+      </c>
+      <c r="F60" t="s">
+        <v>391</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>393</v>
+      </c>
+      <c r="I60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="422">
   <si>
     <t>Heroes</t>
   </si>
@@ -1197,6 +1197,90 @@
   </si>
   <si>
     <t>22|26</t>
+  </si>
+  <si>
+    <t>Mojo</t>
+  </si>
+  <si>
+    <t>Ultron's Legacy|Mojoverse|Deadpool's Secret Secret Wars</t>
+  </si>
+  <si>
+    <t>Gwenpool (CH)|Tigra (CW)|Domino (DC)|Bishop (DC)|Howard the Duck (D)</t>
+  </si>
+  <si>
+    <t>Gwenpool and Howard allow ridiculous bystander acquisition. Domino was also insane here and there was lots of KOing grey heroes.</t>
+  </si>
+  <si>
+    <t>59|77</t>
+  </si>
+  <si>
+    <t>Destroy the Nova Corps</t>
+  </si>
+  <si>
+    <t>Magus</t>
+  </si>
+  <si>
+    <t>Wrecking Crew|Poisons</t>
+  </si>
+  <si>
+    <t>Universal Church of Truth</t>
+  </si>
+  <si>
+    <t>Luke Cage (CW)|Captain America (Falcon) (C75)|Aurora &amp; Northstar (XM)|Daredevil Noir (N)</t>
+  </si>
+  <si>
+    <t>Only 6 cards left. 9 officers KO'd with last twist.</t>
+  </si>
+  <si>
+    <t>31|32</t>
+  </si>
+  <si>
+    <t>Baron Helmut Zemo</t>
+  </si>
+  <si>
+    <t>Thunderbolts|Black Order of Thanos</t>
+  </si>
+  <si>
+    <t>Iron Man Noir (N)|Black Bolt (SW1)|Longshot (XM)|Corvus Glaive (SW2)|Lady Thor (SW1)</t>
+  </si>
+  <si>
+    <t>7 cards left, two twists. Managed to double hit the mastermind turn before the lethal twist (extra twist due to horror). One player had three rare hero cards.</t>
+  </si>
+  <si>
+    <t>23|49</t>
+  </si>
+  <si>
+    <t>Midtown Bank Robbery</t>
+  </si>
+  <si>
+    <t>The Grandmaster</t>
+  </si>
+  <si>
+    <t>Elders of the Universe|Celestials</t>
+  </si>
+  <si>
+    <t>War Machine (R)|Mysterio (V)|Wonder Man (AM)|Ronin (R)|Karma (NM)</t>
+  </si>
+  <si>
+    <t>Lots of HQ filtering going on, with flexible recruit/attack cards. No bystander was taken away and only one celestial escaped.</t>
+  </si>
+  <si>
+    <t>35|55</t>
+  </si>
+  <si>
+    <t>Hidden Heart of Darkness</t>
+  </si>
+  <si>
+    <t>Sisterhood of Mutants|Celestials</t>
+  </si>
+  <si>
+    <t>Captain America 1941 (C75)|Ghost Rider (DC)|Spider-Man Noir (N)|Superior Iron Man (SW1)|War Machine (R)</t>
+  </si>
+  <si>
+    <t>Magus's returning tactic is really nasty here. Whole game was tight with one tactic escaped and city constantly full. At the end, all tactics were dealt with but villain deck was empty before Magus himself could be hit.</t>
+  </si>
+  <si>
+    <t>62|46</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3531,6 +3615,166 @@
         <v>392</v>
       </c>
     </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>394</v>
+      </c>
+      <c r="D61" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>398</v>
+      </c>
+      <c r="I61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>399</v>
+      </c>
+      <c r="C62" t="s">
+        <v>400</v>
+      </c>
+      <c r="D62" t="s">
+        <v>401</v>
+      </c>
+      <c r="E62" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" t="s">
+        <v>403</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>405</v>
+      </c>
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>378</v>
+      </c>
+      <c r="C63" t="s">
+        <v>406</v>
+      </c>
+      <c r="D63" t="s">
+        <v>407</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" t="s">
+        <v>408</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>410</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>411</v>
+      </c>
+      <c r="C64" t="s">
+        <v>412</v>
+      </c>
+      <c r="D64" t="s">
+        <v>413</v>
+      </c>
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" t="s">
+        <v>414</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>416</v>
+      </c>
+      <c r="I64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>417</v>
+      </c>
+      <c r="C65" t="s">
+        <v>400</v>
+      </c>
+      <c r="D65" t="s">
+        <v>418</v>
+      </c>
+      <c r="E65" t="s">
+        <v>402</v>
+      </c>
+      <c r="F65" t="s">
+        <v>419</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>421</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="426">
   <si>
     <t>Heroes</t>
   </si>
@@ -1281,6 +1281,18 @@
   </si>
   <si>
     <t>62|46</t>
+  </si>
+  <si>
+    <t>King Hyperion</t>
+  </si>
+  <si>
+    <t>Utopolis|Registration Enforcers</t>
+  </si>
+  <si>
+    <t>Caiera (WW)|Tigra (CW)|Black Swan (SW2)|Warlock (NM)|The Captain and the Devil (SW2)</t>
+  </si>
+  <si>
+    <t>Too much charge and fateful resurrection. More Thor escapes because of charge than twists.</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3775,6 +3787,35 @@
         <v>420</v>
       </c>
     </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" t="s">
+        <v>422</v>
+      </c>
+      <c r="D66" t="s">
+        <v>423</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" t="s">
+        <v>424</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" t="s">
+        <v>425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="431">
   <si>
     <t>Heroes</t>
   </si>
@@ -1293,6 +1293,21 @@
   </si>
   <si>
     <t>Too much charge and fateful resurrection. More Thor escapes because of charge than twists.</t>
+  </si>
+  <si>
+    <t>Ruin the Perfect Wedding</t>
+  </si>
+  <si>
+    <t>Life Foundation|X-Men First Class</t>
+  </si>
+  <si>
+    <t>Nightcrawler (DC)|Nerkkod, Breaker of Oceans (FI)|Star-Lord (GG)|Magneto (V)|Skirn, Breaker of Men (FI)</t>
+  </si>
+  <si>
+    <t>28|37</t>
+  </si>
+  <si>
+    <t>Lots of shards from Starman and lots of bystanders from Deadpool the groom (or bride)</t>
   </si>
 </sst>
 </file>
@@ -1633,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3816,6 +3831,38 @@
         <v>425</v>
       </c>
     </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>426</v>
+      </c>
+      <c r="C67" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" t="s">
+        <v>427</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>428</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>429</v>
+      </c>
+      <c r="I67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="439">
   <si>
     <t>Heroes</t>
   </si>
@@ -1308,6 +1308,30 @@
   </si>
   <si>
     <t>Lots of shards from Starman and lots of bystanders from Deadpool the groom (or bride)</t>
+  </si>
+  <si>
+    <t>Devolve with Xerogen Crystals</t>
+  </si>
+  <si>
+    <t>King Hulk, Sakaarson</t>
+  </si>
+  <si>
+    <t>Warbound|Maximum Carnage</t>
+  </si>
+  <si>
+    <t>Shi'ar Patrol Craft|The Brood</t>
+  </si>
+  <si>
+    <t>Nerkkod, Breaker of Oceans (FI)|X-23 (XM)|Hulkling (CW)|Gambit (B)|Angel Noir (N)</t>
+  </si>
+  <si>
+    <t>The Brood</t>
+  </si>
+  <si>
+    <t>40|23</t>
+  </si>
+  <si>
+    <t>Not many villain cards left, but only two escapees. Lots of wound clearers and top deck manipulation + feast thinned decks well.</t>
   </si>
 </sst>
 </file>
@@ -1648,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3863,6 +3887,41 @@
         <v>430</v>
       </c>
     </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>431</v>
+      </c>
+      <c r="C68" t="s">
+        <v>432</v>
+      </c>
+      <c r="D68" t="s">
+        <v>433</v>
+      </c>
+      <c r="E68" t="s">
+        <v>434</v>
+      </c>
+      <c r="F68" t="s">
+        <v>435</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>437</v>
+      </c>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+      <c r="J68" t="s">
+        <v>436</v>
+      </c>
+      <c r="K68" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="454">
   <si>
     <t>Heroes</t>
   </si>
@@ -1332,6 +1332,51 @@
   </si>
   <si>
     <t>Not many villain cards left, but only two escapees. Lots of wound clearers and top deck manipulation + feast thinned decks well.</t>
+  </si>
+  <si>
+    <t>Five Families of Crime</t>
+  </si>
+  <si>
+    <t>Poisons|Sinister Six|Mojoverse|Skrulls</t>
+  </si>
+  <si>
+    <t>Soulsword Colossus (SW2)|Skaar, Son of Hulk (WW)|Sabretooth (V)|Gladiator Hulk (WW)|Hercules (CW)</t>
+  </si>
+  <si>
+    <t>50|44</t>
+  </si>
+  <si>
+    <t>6 escapees, lots of rare heroes acquired. Skaar and Sabretooth are a good combo.</t>
+  </si>
+  <si>
+    <t>Mojoverse|The Deadlands|Zola's Creations</t>
+  </si>
+  <si>
+    <t>Warlock (NM)|Spider-Man (B)|Medusa (ROK)|Greithoth, Breaker of Wills (FI)|Captain Marvel, Agent of S.H.I.E.L.D. (R)</t>
+  </si>
+  <si>
+    <t>Five villains escaped early before stabilizing. Spiral ruined two whole turns for both players. Managed to dodge the living dead rising again and spiderman did quite some work.</t>
+  </si>
+  <si>
+    <t>58|55</t>
+  </si>
+  <si>
+    <t>Deadpool Wants a Chimichanga</t>
+  </si>
+  <si>
+    <t>Kree Starforce|Utopolis</t>
+  </si>
+  <si>
+    <t>Thor Corps</t>
+  </si>
+  <si>
+    <t>Venompool (VE)|Spider-Woman (PTT)|Ultimate Spider-Man (SW1)|Rick Jones (WW)|Namor, the Sub-Mariner (SW1)</t>
+  </si>
+  <si>
+    <t>One turn short to get the last tactic before the villain deck ran out. Thor Corps was a major blocker.</t>
+  </si>
+  <si>
+    <t>32|38</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3922,6 +3967,102 @@
         <v>438</v>
       </c>
     </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>439</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" t="s">
+        <v>440</v>
+      </c>
+      <c r="E69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" t="s">
+        <v>441</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>442</v>
+      </c>
+      <c r="I69" t="s">
+        <v>104</v>
+      </c>
+      <c r="K69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" t="s">
+        <v>394</v>
+      </c>
+      <c r="D70" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" t="s">
+        <v>445</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>447</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>448</v>
+      </c>
+      <c r="C71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" t="s">
+        <v>449</v>
+      </c>
+      <c r="E71" t="s">
+        <v>450</v>
+      </c>
+      <c r="F71" t="s">
+        <v>451</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>453</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/support/results.xlsx
+++ b/support/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="461">
   <si>
     <t>Heroes</t>
   </si>
@@ -1377,6 +1377,27 @@
   </si>
   <si>
     <t>32|38</t>
+  </si>
+  <si>
+    <t>The Contest of Champions</t>
+  </si>
+  <si>
+    <t>Nimrod, Super Sentinel</t>
+  </si>
+  <si>
+    <t>Sentinel Territories|Poisons</t>
+  </si>
+  <si>
+    <t>Shi'ar Death Commandos</t>
+  </si>
+  <si>
+    <t>Ant-Man (AM)|Beta Ray Bill (HOA)|Darkhawk (R)|Phyla-Vell (ITC)|Juggernaut (V)|Man-Thing (D)</t>
+  </si>
+  <si>
+    <t>26|41</t>
+  </si>
+  <si>
+    <t>Juggernaut dominated early, darkhawk had great synergy against Nimrod at the end.</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4063,6 +4084,38 @@
         <v>452</v>
       </c>
     </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>454</v>
+      </c>
+      <c r="C72" t="s">
+        <v>455</v>
+      </c>
+      <c r="D72" t="s">
+        <v>456</v>
+      </c>
+      <c r="E72" t="s">
+        <v>457</v>
+      </c>
+      <c r="F72" t="s">
+        <v>458</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>459</v>
+      </c>
+      <c r="I72" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
